--- a/natmiOut/OldD7/LR-pairs_lrc2p/Pcsk9-Vldlr.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Pcsk9-Vldlr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,15 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,9 +92,6 @@
   </si>
   <si>
     <t>Vldlr</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.18060818793745</v>
+        <v>0.4888046666666666</v>
       </c>
       <c r="H2">
-        <v>1.18060818793745</v>
+        <v>1.466414</v>
       </c>
       <c r="I2">
-        <v>0.7656848146349858</v>
+        <v>0.2161569274877377</v>
       </c>
       <c r="J2">
-        <v>0.7656848146349858</v>
+        <v>0.2161569274877378</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.446611867381846</v>
+        <v>0.463191</v>
       </c>
       <c r="N2">
-        <v>0.446611867381846</v>
+        <v>1.389573</v>
       </c>
       <c r="O2">
-        <v>0.03707988567574841</v>
+        <v>0.0353316468093919</v>
       </c>
       <c r="P2">
-        <v>0.03707988567574841</v>
+        <v>0.0353316468093919</v>
       </c>
       <c r="Q2">
-        <v>0.5272736274610419</v>
+        <v>0.2264099223579999</v>
       </c>
       <c r="R2">
-        <v>0.5272736274610419</v>
+        <v>2.037689301222</v>
       </c>
       <c r="S2">
-        <v>0.02839150539032189</v>
+        <v>0.007637180217400084</v>
       </c>
       <c r="T2">
-        <v>0.02839150539032189</v>
+        <v>0.007637180217400087</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.18060818793745</v>
+        <v>0.4888046666666666</v>
       </c>
       <c r="H3">
-        <v>1.18060818793745</v>
+        <v>1.466414</v>
       </c>
       <c r="I3">
-        <v>0.7656848146349858</v>
+        <v>0.2161569274877377</v>
       </c>
       <c r="J3">
-        <v>0.7656848146349858</v>
+        <v>0.2161569274877378</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>9.897926520279681</v>
+        <v>9.932929333333332</v>
       </c>
       <c r="N3">
-        <v>9.897926520279681</v>
+        <v>29.798788</v>
       </c>
       <c r="O3">
-        <v>0.8217739173624282</v>
+        <v>0.7576717833204485</v>
       </c>
       <c r="P3">
-        <v>0.8217739173624282</v>
+        <v>0.7576717833204486</v>
       </c>
       <c r="Q3">
-        <v>11.68557309344542</v>
+        <v>4.855262211803554</v>
       </c>
       <c r="R3">
-        <v>11.68557309344542</v>
+        <v>43.69735990623199</v>
       </c>
       <c r="S3">
-        <v>0.629219809587517</v>
+        <v>0.1637760047267031</v>
       </c>
       <c r="T3">
-        <v>0.629219809587517</v>
+        <v>0.1637760047267032</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,123 +646,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.18060818793745</v>
+        <v>0.4888046666666666</v>
       </c>
       <c r="H4">
-        <v>1.18060818793745</v>
+        <v>1.466414</v>
       </c>
       <c r="I4">
-        <v>0.7656848146349858</v>
+        <v>0.2161569274877377</v>
       </c>
       <c r="J4">
-        <v>0.7656848146349858</v>
+        <v>0.2161569274877378</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>1.70004749071259</v>
+        <v>0.1285543333333333</v>
       </c>
       <c r="N4">
-        <v>1.70004749071259</v>
+        <v>0.385663</v>
       </c>
       <c r="O4">
-        <v>0.1411461969618234</v>
+        <v>0.009805968382697785</v>
       </c>
       <c r="P4">
-        <v>0.1411461969618234</v>
+        <v>0.009805968382697785</v>
       </c>
       <c r="Q4">
-        <v>2.0070899874178</v>
+        <v>0.06283795805355555</v>
       </c>
       <c r="R4">
-        <v>2.0070899874178</v>
+        <v>0.5655416224819999</v>
       </c>
       <c r="S4">
-        <v>0.108073499657147</v>
+        <v>0.002119627996645854</v>
       </c>
       <c r="T4">
-        <v>0.108073499657147</v>
+        <v>0.002119627996645854</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.36129020859829</v>
+        <v>0.4888046666666666</v>
       </c>
       <c r="H5">
-        <v>0.36129020859829</v>
+        <v>1.466414</v>
       </c>
       <c r="I5">
-        <v>0.2343151853650141</v>
+        <v>0.2161569274877377</v>
       </c>
       <c r="J5">
-        <v>0.2343151853650141</v>
+        <v>0.2161569274877378</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.446611867381846</v>
+        <v>2.585130333333333</v>
       </c>
       <c r="N5">
-        <v>0.446611867381846</v>
+        <v>7.755391</v>
       </c>
       <c r="O5">
-        <v>0.03707988567574841</v>
+        <v>0.1971906014874617</v>
       </c>
       <c r="P5">
-        <v>0.03707988567574841</v>
+        <v>0.1971906014874618</v>
       </c>
       <c r="Q5">
-        <v>0.161356494728859</v>
+        <v>1.263623770874889</v>
       </c>
       <c r="R5">
-        <v>0.161356494728859</v>
+        <v>11.372613937874</v>
       </c>
       <c r="S5">
-        <v>0.008688380285426522</v>
+        <v>0.04262411454698865</v>
       </c>
       <c r="T5">
-        <v>0.008688380285426522</v>
+        <v>0.04262411454698867</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.36129020859829</v>
+        <v>1.231347666666667</v>
       </c>
       <c r="H6">
-        <v>0.36129020859829</v>
+        <v>3.694043</v>
       </c>
       <c r="I6">
-        <v>0.2343151853650141</v>
+        <v>0.5445208412410036</v>
       </c>
       <c r="J6">
-        <v>0.2343151853650141</v>
+        <v>0.5445208412410038</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.897926520279681</v>
+        <v>0.463191</v>
       </c>
       <c r="N6">
-        <v>9.897926520279681</v>
+        <v>1.389573</v>
       </c>
       <c r="O6">
-        <v>0.8217739173624282</v>
+        <v>0.0353316468093919</v>
       </c>
       <c r="P6">
-        <v>0.8217739173624282</v>
+        <v>0.0353316468093919</v>
       </c>
       <c r="Q6">
-        <v>3.576023937202392</v>
+        <v>0.5703491570709999</v>
       </c>
       <c r="R6">
-        <v>3.576023937202392</v>
+        <v>5.133142413639</v>
       </c>
       <c r="S6">
-        <v>0.1925541077749112</v>
+        <v>0.0192388180430801</v>
       </c>
       <c r="T6">
-        <v>0.1925541077749112</v>
+        <v>0.0192388180430801</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +832,681 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.36129020859829</v>
+        <v>1.231347666666667</v>
       </c>
       <c r="H7">
-        <v>0.36129020859829</v>
+        <v>3.694043</v>
       </c>
       <c r="I7">
-        <v>0.2343151853650141</v>
+        <v>0.5445208412410036</v>
       </c>
       <c r="J7">
-        <v>0.2343151853650141</v>
+        <v>0.5445208412410038</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.70004749071259</v>
+        <v>9.932929333333332</v>
       </c>
       <c r="N7">
-        <v>1.70004749071259</v>
+        <v>29.798788</v>
       </c>
       <c r="O7">
-        <v>0.1411461969618234</v>
+        <v>0.7576717833204485</v>
       </c>
       <c r="P7">
-        <v>0.1411461969618234</v>
+        <v>0.7576717833204486</v>
       </c>
       <c r="Q7">
-        <v>0.6142105125465511</v>
+        <v>12.23088935776489</v>
       </c>
       <c r="R7">
-        <v>0.6142105125465511</v>
+        <v>110.078004219884</v>
       </c>
       <c r="S7">
-        <v>0.03307269730467645</v>
+        <v>0.4125680768382221</v>
       </c>
       <c r="T7">
-        <v>0.03307269730467645</v>
+        <v>0.4125680768382222</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1.231347666666667</v>
+      </c>
+      <c r="H8">
+        <v>3.694043</v>
+      </c>
+      <c r="I8">
+        <v>0.5445208412410036</v>
+      </c>
+      <c r="J8">
+        <v>0.5445208412410038</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.1285543333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.385663</v>
+      </c>
+      <c r="O8">
+        <v>0.009805968382697785</v>
+      </c>
+      <c r="P8">
+        <v>0.009805968382697785</v>
+      </c>
+      <c r="Q8">
+        <v>0.1582950783898888</v>
+      </c>
+      <c r="R8">
+        <v>1.424655705509</v>
+      </c>
+      <c r="S8">
+        <v>0.005339554152929282</v>
+      </c>
+      <c r="T8">
+        <v>0.005339554152929283</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.231347666666667</v>
+      </c>
+      <c r="H9">
+        <v>3.694043</v>
+      </c>
+      <c r="I9">
+        <v>0.5445208412410036</v>
+      </c>
+      <c r="J9">
+        <v>0.5445208412410038</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>2.585130333333333</v>
+      </c>
+      <c r="N9">
+        <v>7.755391</v>
+      </c>
+      <c r="O9">
+        <v>0.1971906014874617</v>
+      </c>
+      <c r="P9">
+        <v>0.1971906014874618</v>
+      </c>
+      <c r="Q9">
+        <v>3.183194203979222</v>
+      </c>
+      <c r="R9">
+        <v>28.648747835813</v>
+      </c>
+      <c r="S9">
+        <v>0.1073743922067722</v>
+      </c>
+      <c r="T9">
+        <v>0.1073743922067722</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.1189606666666667</v>
+      </c>
+      <c r="H10">
+        <v>0.356882</v>
+      </c>
+      <c r="I10">
+        <v>0.05260623302537948</v>
+      </c>
+      <c r="J10">
+        <v>0.05260623302537949</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.463191</v>
+      </c>
+      <c r="N10">
+        <v>1.389573</v>
+      </c>
+      <c r="O10">
+        <v>0.0353316468093919</v>
+      </c>
+      <c r="P10">
+        <v>0.0353316468093919</v>
+      </c>
+      <c r="Q10">
+        <v>0.055101510154</v>
+      </c>
+      <c r="R10">
+        <v>0.4959135913860001</v>
+      </c>
+      <c r="S10">
+        <v>0.001858664845225276</v>
+      </c>
+      <c r="T10">
+        <v>0.001858664845225276</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.1189606666666667</v>
+      </c>
+      <c r="H11">
+        <v>0.356882</v>
+      </c>
+      <c r="I11">
+        <v>0.05260623302537948</v>
+      </c>
+      <c r="J11">
+        <v>0.05260623302537949</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>9.932929333333332</v>
+      </c>
+      <c r="N11">
+        <v>29.798788</v>
+      </c>
+      <c r="O11">
+        <v>0.7576717833204485</v>
+      </c>
+      <c r="P11">
+        <v>0.7576717833204486</v>
+      </c>
+      <c r="Q11">
+        <v>1.181627895446222</v>
+      </c>
+      <c r="R11">
+        <v>10.634651059016</v>
+      </c>
+      <c r="S11">
+        <v>0.03985825839011034</v>
+      </c>
+      <c r="T11">
+        <v>0.03985825839011036</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.1189606666666667</v>
+      </c>
+      <c r="H12">
+        <v>0.356882</v>
+      </c>
+      <c r="I12">
+        <v>0.05260623302537948</v>
+      </c>
+      <c r="J12">
+        <v>0.05260623302537949</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.1285543333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.385663</v>
+      </c>
+      <c r="O12">
+        <v>0.009805968382697785</v>
+      </c>
+      <c r="P12">
+        <v>0.009805968382697785</v>
+      </c>
+      <c r="Q12">
+        <v>0.01529290919622222</v>
+      </c>
+      <c r="R12">
+        <v>0.137636182766</v>
+      </c>
+      <c r="S12">
+        <v>0.0005158550577797032</v>
+      </c>
+      <c r="T12">
+        <v>0.0005158550577797033</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.1189606666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.356882</v>
+      </c>
+      <c r="I13">
+        <v>0.05260623302537948</v>
+      </c>
+      <c r="J13">
+        <v>0.05260623302537949</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>2.585130333333333</v>
+      </c>
+      <c r="N13">
+        <v>7.755391</v>
+      </c>
+      <c r="O13">
+        <v>0.1971906014874617</v>
+      </c>
+      <c r="P13">
+        <v>0.1971906014874618</v>
+      </c>
+      <c r="Q13">
+        <v>0.3075288278735556</v>
+      </c>
+      <c r="R13">
+        <v>2.767759450862</v>
+      </c>
+      <c r="S13">
+        <v>0.01037345473226415</v>
+      </c>
+      <c r="T13">
+        <v>0.01037345473226416</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.4222286666666666</v>
+      </c>
+      <c r="H14">
+        <v>1.266686</v>
+      </c>
+      <c r="I14">
+        <v>0.1867159982458791</v>
+      </c>
+      <c r="J14">
+        <v>0.1867159982458791</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.463191</v>
+      </c>
+      <c r="N14">
+        <v>1.389573</v>
+      </c>
+      <c r="O14">
+        <v>0.0353316468093919</v>
+      </c>
+      <c r="P14">
+        <v>0.0353316468093919</v>
+      </c>
+      <c r="Q14">
+        <v>0.195572518342</v>
+      </c>
+      <c r="R14">
+        <v>1.760152665078</v>
+      </c>
+      <c r="S14">
+        <v>0.006596983703686438</v>
+      </c>
+      <c r="T14">
+        <v>0.00659698370368644</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.4222286666666666</v>
+      </c>
+      <c r="H15">
+        <v>1.266686</v>
+      </c>
+      <c r="I15">
+        <v>0.1867159982458791</v>
+      </c>
+      <c r="J15">
+        <v>0.1867159982458791</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>9.932929333333332</v>
+      </c>
+      <c r="N15">
+        <v>29.798788</v>
+      </c>
+      <c r="O15">
+        <v>0.7576717833204485</v>
+      </c>
+      <c r="P15">
+        <v>0.7576717833204486</v>
+      </c>
+      <c r="Q15">
+        <v>4.193967508507555</v>
+      </c>
+      <c r="R15">
+        <v>37.74570757656799</v>
+      </c>
+      <c r="S15">
+        <v>0.141469443365413</v>
+      </c>
+      <c r="T15">
+        <v>0.141469443365413</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.4222286666666666</v>
+      </c>
+      <c r="H16">
+        <v>1.266686</v>
+      </c>
+      <c r="I16">
+        <v>0.1867159982458791</v>
+      </c>
+      <c r="J16">
+        <v>0.1867159982458791</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.1285543333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.385663</v>
+      </c>
+      <c r="O16">
+        <v>0.009805968382697785</v>
+      </c>
+      <c r="P16">
+        <v>0.009805968382697785</v>
+      </c>
+      <c r="Q16">
+        <v>0.05427932475755555</v>
+      </c>
+      <c r="R16">
+        <v>0.488513922818</v>
+      </c>
+      <c r="S16">
+        <v>0.001830931175342946</v>
+      </c>
+      <c r="T16">
+        <v>0.001830931175342946</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.4222286666666666</v>
+      </c>
+      <c r="H17">
+        <v>1.266686</v>
+      </c>
+      <c r="I17">
+        <v>0.1867159982458791</v>
+      </c>
+      <c r="J17">
+        <v>0.1867159982458791</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>2.585130333333333</v>
+      </c>
+      <c r="N17">
+        <v>7.755391</v>
+      </c>
+      <c r="O17">
+        <v>0.1971906014874617</v>
+      </c>
+      <c r="P17">
+        <v>0.1971906014874618</v>
+      </c>
+      <c r="Q17">
+        <v>1.091516133802889</v>
+      </c>
+      <c r="R17">
+        <v>9.823645204226001</v>
+      </c>
+      <c r="S17">
+        <v>0.03681864000143675</v>
+      </c>
+      <c r="T17">
+        <v>0.03681864000143676</v>
       </c>
     </row>
   </sheetData>
